--- a/Gum Distribution Centers.xlsx
+++ b/Gum Distribution Centers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zziyue/Desktop/Research/Merger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1DF906-3EC7-F246-8679-DE9FF48B93F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177EAFAB-898A-2F41-926A-9BE5BFC3ECC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="firms in the market" sheetId="2" r:id="rId1"/>

--- a/Gum Distribution Centers.xlsx
+++ b/Gum Distribution Centers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zziyue/Desktop/Research/Merger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177EAFAB-898A-2F41-926A-9BE5BFC3ECC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B1AB97-71B8-CA49-B9F6-A8B57AB84F3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="firms in the market" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="422">
   <si>
     <t>brand_descr</t>
   </si>
@@ -984,9 +984,6 @@
   </si>
   <si>
     <t>Memphis, TN</t>
-  </si>
-  <si>
-    <t>Gum</t>
   </si>
   <si>
     <t>Mints</t>
@@ -2192,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBF7029-DACB-CC48-9D91-6E50BCF74ACA}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2212,16 +2209,16 @@
         <v>290</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>405</v>
-      </c>
       <c r="D1" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>291</v>
@@ -2269,10 +2266,10 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>352</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>353</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -2289,7 +2286,7 @@
         <v>295</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -2349,10 +2346,10 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>354</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>355</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -2395,14 +2392,14 @@
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -2416,10 +2413,10 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>392</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>393</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -2432,13 +2429,13 @@
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H14" s="11">
         <v>6</v>
@@ -2453,13 +2450,13 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F15" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>407</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>408</v>
       </c>
       <c r="H15" s="11">
         <v>7</v>
@@ -2499,10 +2496,10 @@
         <v>236</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>361</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>362</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -2515,10 +2512,10 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -2532,10 +2529,10 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>364</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>365</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -2556,14 +2553,14 @@
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -2577,10 +2574,10 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>366</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>367</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -2620,10 +2617,10 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>368</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>369</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -2659,10 +2656,10 @@
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>370</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>371</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -2675,7 +2672,7 @@
         <v>312</v>
       </c>
       <c r="C30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>313</v>
@@ -2692,7 +2689,7 @@
         <v>314</v>
       </c>
       <c r="C31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>313</v>
@@ -2709,7 +2706,7 @@
         <v>315</v>
       </c>
       <c r="C32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>316</v>
@@ -2726,7 +2723,7 @@
         <v>317</v>
       </c>
       <c r="C33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>298</v>
@@ -2743,7 +2740,7 @@
         <v>318</v>
       </c>
       <c r="C34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>298</v>
@@ -2760,7 +2757,7 @@
         <v>319</v>
       </c>
       <c r="C35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>320</v>
@@ -2773,11 +2770,9 @@
       <c r="A36" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>321</v>
-      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2793,10 +2788,10 @@
         <v>241</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2812,10 +2807,10 @@
         <v>241</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C38" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2831,15 +2826,15 @@
         <v>241</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>299</v>
@@ -2850,15 +2845,15 @@
         <v>241</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>299</v>
@@ -2884,10 +2879,10 @@
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="G42" s="12" t="s">
         <v>372</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>373</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -2897,10 +2892,10 @@
         <v>282</v>
       </c>
       <c r="F43" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G43" s="12" t="s">
         <v>328</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2924,10 +2919,10 @@
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>374</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>375</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -2937,10 +2932,10 @@
         <v>284</v>
       </c>
       <c r="F46" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G46" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:9" customFormat="1" ht="68">
@@ -2948,10 +2943,10 @@
         <v>284</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:9" customFormat="1" ht="68">
@@ -2959,10 +2954,10 @@
         <v>284</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="51">
@@ -2974,10 +2969,10 @@
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G49" s="12" t="s">
         <v>376</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>377</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
@@ -2994,10 +2989,10 @@
         <v>280</v>
       </c>
       <c r="F51" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G51" s="12" t="s">
         <v>334</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="68">
@@ -3009,10 +3004,10 @@
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="G52" s="17" t="s">
         <v>409</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>410</v>
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
@@ -3022,10 +3017,10 @@
         <v>270</v>
       </c>
       <c r="F53" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G53" s="12" t="s">
         <v>336</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:9" customFormat="1">
@@ -3048,13 +3043,13 @@
     </row>
     <row r="56" spans="1:9" customFormat="1" ht="170">
       <c r="A56" t="s">
+        <v>337</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="12" t="s">
         <v>339</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="57" spans="1:9" customFormat="1" ht="51">
@@ -3062,10 +3057,10 @@
         <v>279</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58" spans="1:9" customFormat="1" ht="51">
@@ -3073,10 +3068,10 @@
         <v>279</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59" spans="1:9" customFormat="1" ht="51">
@@ -3084,10 +3079,10 @@
         <v>279</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="51">
@@ -3099,10 +3094,10 @@
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
@@ -3112,10 +3107,10 @@
         <v>279</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" spans="1:9" customFormat="1" ht="51">
@@ -3123,10 +3118,10 @@
         <v>279</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:9" customFormat="1" ht="51">
@@ -3134,10 +3129,10 @@
         <v>279</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="51">
@@ -3149,10 +3144,10 @@
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
@@ -3162,10 +3157,10 @@
         <v>235</v>
       </c>
       <c r="F65" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G65" s="12" t="s">
         <v>341</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="102">
@@ -3177,10 +3172,10 @@
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G66" s="17" t="s">
         <v>411</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>412</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -3209,10 +3204,10 @@
         <v>289</v>
       </c>
       <c r="F69" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G69" s="12" t="s">
         <v>343</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3235,10 +3230,10 @@
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H71" s="11">
         <v>14</v>
@@ -3254,10 +3249,10 @@
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H72" s="11">
         <v>14</v>
@@ -3273,10 +3268,10 @@
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H73" s="11">
         <v>14</v>
@@ -3291,13 +3286,13 @@
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F74" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="G74" s="17" t="s">
         <v>417</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>418</v>
       </c>
       <c r="H74" s="11">
         <v>14</v>
@@ -3312,13 +3307,13 @@
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H75" s="11">
         <v>14</v>
@@ -3332,14 +3327,14 @@
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="G76" s="12" t="s">
         <v>378</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>379</v>
       </c>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
@@ -3351,14 +3346,14 @@
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="G77" s="12" t="s">
         <v>380</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>381</v>
       </c>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
@@ -3372,10 +3367,10 @@
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
@@ -3389,10 +3384,10 @@
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G79" s="12" t="s">
         <v>383</v>
-      </c>
-      <c r="G79" s="12" t="s">
-        <v>384</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -3418,10 +3413,10 @@
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="G81" s="17" t="s">
         <v>419</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>420</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
@@ -3446,7 +3441,7 @@
         <v>295</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:9" customFormat="1" ht="85">
@@ -3454,10 +3449,10 @@
         <v>244</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85" spans="1:9" customFormat="1" ht="85">
@@ -3465,10 +3460,10 @@
         <v>244</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="136">
@@ -3480,10 +3475,10 @@
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G86" s="12" t="s">
         <v>385</v>
-      </c>
-      <c r="G86" s="12" t="s">
-        <v>386</v>
       </c>
       <c r="H86" s="11">
         <v>10</v>
@@ -3498,13 +3493,13 @@
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="G87" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H87" s="11">
         <v>10</v>
@@ -3520,10 +3515,10 @@
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G88" s="12" t="s">
         <v>387</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>388</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
@@ -3534,7 +3529,7 @@
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3542,7 +3537,7 @@
         <v>297</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H89" s="1">
         <v>6</v>
@@ -3553,13 +3548,13 @@
         <v>232</v>
       </c>
       <c r="C90" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H90" s="1">
         <v>6</v>
@@ -3571,15 +3566,15 @@
       </c>
       <c r="B91" s="1"/>
       <c r="C91" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H91" s="1">
         <v>6</v>
@@ -3591,15 +3586,15 @@
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H92" s="1">
         <v>6</v>
@@ -3611,15 +3606,15 @@
       </c>
       <c r="B93" s="1"/>
       <c r="C93" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H93" s="1">
         <v>6</v>
@@ -3634,10 +3629,10 @@
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
       <c r="F94" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G94" s="12" t="s">
         <v>389</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>390</v>
       </c>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
@@ -5864,16 +5859,16 @@
         <v>87</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5884,16 +5879,16 @@
         <v>110</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5904,16 +5899,16 @@
         <v>72</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5924,16 +5919,16 @@
         <v>5</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="111" spans="1:6">

--- a/Gum Distribution Centers.xlsx
+++ b/Gum Distribution Centers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zziyue/Desktop/Research/Merger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B1AB97-71B8-CA49-B9F6-A8B57AB84F3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81B9772-E199-D345-AA1B-D12B0E567270}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="firms in the market" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="422">
   <si>
     <t>brand_descr</t>
   </si>
@@ -977,9 +977,6 @@
     <t>Caramello</t>
   </si>
   <si>
-    <t>Kit Kat</t>
-  </si>
-  <si>
     <t>Ice Breakers</t>
   </si>
   <si>
@@ -1287,6 +1284,9 @@
   </si>
   <si>
     <t>Duryea, Pennsylvania</t>
+  </si>
+  <si>
+    <t>KitKat</t>
   </si>
 </sst>
 </file>
@@ -1804,7 +1804,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1831,6 +1831,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2187,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBF7029-DACB-CC48-9D91-6E50BCF74ACA}">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2209,16 +2212,16 @@
         <v>290</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>404</v>
-      </c>
       <c r="D1" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>291</v>
@@ -2266,10 +2269,10 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>351</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>352</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -2286,7 +2289,7 @@
         <v>295</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -2346,10 +2349,10 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>353</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>354</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -2392,14 +2395,14 @@
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -2413,10 +2416,10 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>391</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>392</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -2429,13 +2432,13 @@
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H14" s="11">
         <v>6</v>
@@ -2450,13 +2453,13 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F15" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>406</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>407</v>
       </c>
       <c r="H15" s="11">
         <v>7</v>
@@ -2496,10 +2499,10 @@
         <v>236</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>360</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>361</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -2512,10 +2515,10 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -2529,10 +2532,10 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>363</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>364</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -2553,14 +2556,14 @@
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -2574,10 +2577,10 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>365</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>366</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -2617,10 +2620,10 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>367</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>368</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -2656,10 +2659,10 @@
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>369</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>370</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -2672,12 +2675,12 @@
         <v>312</v>
       </c>
       <c r="C30" t="s">
-        <v>356</v>
-      </c>
-      <c r="F30" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F30" t="s">
         <v>313</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="20" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2686,15 +2689,15 @@
         <v>241</v>
       </c>
       <c r="B31" t="s">
-        <v>314</v>
+        <v>234</v>
       </c>
       <c r="C31" t="s">
-        <v>356</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G31" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G31" s="20" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2703,15 +2706,15 @@
         <v>241</v>
       </c>
       <c r="B32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C32" t="s">
-        <v>356</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="G32" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G32" s="20" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2720,15 +2723,15 @@
         <v>241</v>
       </c>
       <c r="B33" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C33" t="s">
-        <v>356</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G33" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G33" s="20" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2737,15 +2740,15 @@
         <v>241</v>
       </c>
       <c r="B34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C34" t="s">
-        <v>356</v>
-      </c>
-      <c r="F34" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="20" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2753,16 +2756,18 @@
       <c r="A35" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B35" t="s">
-        <v>319</v>
+      <c r="B35" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="C35" t="s">
-        <v>356</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="G35" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G35" s="20" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2770,16 +2775,16 @@
       <c r="A36" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>421</v>
+      </c>
+      <c r="C36" t="s">
         <v>355</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="G36" s="12" t="s">
+      <c r="F36" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" s="20" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2787,18 +2792,16 @@
       <c r="A37" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>321</v>
+      <c r="B37" t="s">
+        <v>318</v>
       </c>
       <c r="C37" t="s">
-        <v>356</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="G37" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" s="20" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2806,18 +2809,16 @@
       <c r="A38" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C38" t="s">
-        <v>356</v>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="G38" s="12" t="s">
+      <c r="F38" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G38" s="20" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2826,17 +2827,17 @@
         <v>241</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="G39" s="12" t="s">
+      <c r="F39" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G39" s="20" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2845,108 +2846,116 @@
         <v>241</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="G40" s="12" t="s">
+      <c r="F40" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G40" s="20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:9" customFormat="1" ht="119">
+      <c r="A41" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C41" t="s">
+        <v>355</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="11" t="s">
         <v>257</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="1:9" ht="51">
-      <c r="A42" s="11" t="s">
-        <v>253</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
-      <c r="F42" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>372</v>
-      </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="1:9" customFormat="1" ht="85">
-      <c r="A43" t="s">
+    <row r="43" spans="1:9" ht="51">
+      <c r="A43" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:9" customFormat="1" ht="85">
+      <c r="A44" t="s">
         <v>282</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F44" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G44" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="G43" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="11" t="s">
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="11" t="s">
         <v>258</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-    </row>
-    <row r="45" spans="1:9" ht="68">
-      <c r="A45" s="11" t="s">
-        <v>259</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>374</v>
-      </c>
+      <c r="F45" s="10"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
     </row>
-    <row r="46" spans="1:9" customFormat="1" ht="68">
-      <c r="A46" t="s">
-        <v>284</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>329</v>
+    <row r="46" spans="1:9" ht="68">
+      <c r="A46" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10" t="s">
+        <v>372</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>330</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9" customFormat="1" ht="68">
       <c r="A47" t="s">
         <v>284</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:9" customFormat="1" ht="68">
@@ -2954,113 +2963,113 @@
         <v>284</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" customFormat="1" ht="68">
+      <c r="A49" t="s">
+        <v>284</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="51">
+      <c r="A50" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="1:9" customFormat="1">
+      <c r="A51" t="s">
+        <v>277</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:9" customFormat="1" ht="85">
+      <c r="A52" t="s">
+        <v>280</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="G48" s="12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="51">
-      <c r="A49" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-    </row>
-    <row r="50" spans="1:9" customFormat="1">
-      <c r="A50" t="s">
-        <v>277</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="1:9" customFormat="1" ht="85">
-      <c r="A51" t="s">
-        <v>280</v>
-      </c>
-      <c r="F51" s="3" t="s">
+      <c r="G52" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="G51" s="12" t="s">
+    </row>
+    <row r="53" spans="1:9" ht="68">
+      <c r="A53" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+    </row>
+    <row r="54" spans="1:9" customFormat="1" ht="51">
+      <c r="A54" t="s">
+        <v>270</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="68">
-      <c r="A52" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-    </row>
-    <row r="53" spans="1:9" customFormat="1" ht="51">
-      <c r="A53" t="s">
-        <v>270</v>
-      </c>
-      <c r="F53" s="3" t="s">
+      <c r="G54" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="G53" s="12" t="s">
+    </row>
+    <row r="55" spans="1:9" customFormat="1">
+      <c r="A55" t="s">
+        <v>238</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+    </row>
+    <row r="57" spans="1:9" customFormat="1" ht="170">
+      <c r="A57" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" customFormat="1">
-      <c r="A54" t="s">
-        <v>238</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-    </row>
-    <row r="56" spans="1:9" customFormat="1" ht="170">
-      <c r="A56" t="s">
+      <c r="F57" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G57" s="12" t="s">
         <v>338</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" customFormat="1" ht="51">
-      <c r="A57" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="58" spans="1:9" customFormat="1" ht="51">
@@ -3068,10 +3077,10 @@
         <v>279</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:9" customFormat="1" ht="51">
@@ -3079,49 +3088,49 @@
         <v>279</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="51">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" customFormat="1" ht="51">
       <c r="A60" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="4" t="s">
-        <v>397</v>
+      <c r="F60" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-    </row>
-    <row r="61" spans="1:9" customFormat="1" ht="51">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="51">
       <c r="A61" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>398</v>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>393</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" customFormat="1" ht="51">
       <c r="A62" s="15" t="s">
         <v>279</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:9" customFormat="1" ht="51">
@@ -3129,115 +3138,107 @@
         <v>279</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="51">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" customFormat="1" ht="51">
       <c r="A64" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="4" t="s">
-        <v>401</v>
+      <c r="F64" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-    </row>
-    <row r="65" spans="1:9" customFormat="1" ht="51">
-      <c r="A65" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="51">
+      <c r="A65" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+    </row>
+    <row r="66" spans="1:9" customFormat="1" ht="51">
+      <c r="A66" t="s">
         <v>235</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F66" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G66" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="G65" s="12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="102">
-      <c r="A66" s="14" t="s">
+    </row>
+    <row r="67" spans="1:9" ht="102">
+      <c r="A67" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="11" t="s">
-        <v>288</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
-      <c r="F67" s="10"/>
+      <c r="F67" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>410</v>
+      </c>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
     </row>
-    <row r="68" spans="1:9" customFormat="1">
-      <c r="A68" t="s">
+    <row r="68" spans="1:9">
+      <c r="A68" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="10"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+    </row>
+    <row r="69" spans="1:9" customFormat="1">
+      <c r="A69" t="s">
         <v>266</v>
       </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" spans="1:9" customFormat="1" ht="68">
-      <c r="A69" s="16" t="s">
+      <c r="F69" s="3"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="1:9" customFormat="1" ht="68">
+      <c r="A70" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F70" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G70" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="G69" s="12" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="15" t="s">
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="15" t="s">
         <v>256</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-    </row>
-    <row r="71" spans="1:9" ht="136">
-      <c r="A71" s="15" t="s">
-        <v>268</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
-      <c r="F71" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="G71" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="H71" s="11">
-        <v>14</v>
-      </c>
+      <c r="H71" s="11"/>
       <c r="I71" s="11"/>
     </row>
     <row r="72" spans="1:9" ht="136">
@@ -3249,10 +3250,10 @@
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H72" s="11">
         <v>14</v>
@@ -3268,10 +3269,10 @@
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H73" s="11">
         <v>14</v>
@@ -3285,14 +3286,12 @@
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="F74" s="19" t="s">
+      <c r="E74" s="11"/>
+      <c r="F74" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G74" s="17" t="s">
         <v>416</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>417</v>
       </c>
       <c r="H74" s="11">
         <v>14</v>
@@ -3307,70 +3306,74 @@
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F75" s="19" t="s">
         <v>415</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H75" s="11">
         <v>14</v>
       </c>
       <c r="I75" s="11"/>
     </row>
-    <row r="76" spans="1:9" ht="102">
+    <row r="76" spans="1:9" ht="136">
       <c r="A76" s="15" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
-      <c r="D76" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="E76" s="11"/>
-      <c r="F76" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="H76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="H76" s="11">
+        <v>14</v>
+      </c>
       <c r="I76" s="11"/>
     </row>
-    <row r="77" spans="1:9" ht="68">
+    <row r="77" spans="1:9" ht="102">
       <c r="A77" s="15" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" ht="68">
       <c r="A78" s="15" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
+      <c r="D78" s="11" t="s">
+        <v>357</v>
+      </c>
       <c r="E78" s="11"/>
       <c r="F78" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
@@ -3384,75 +3387,81 @@
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="G79" s="12" t="s">
         <v>382</v>
-      </c>
-      <c r="G79" s="12" t="s">
-        <v>383</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" ht="68">
       <c r="A80" s="15" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="10"/>
+      <c r="F80" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>382</v>
+      </c>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
     </row>
-    <row r="81" spans="1:9" ht="68">
+    <row r="81" spans="1:9">
       <c r="A81" s="15" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>419</v>
-      </c>
+      <c r="F81" s="10"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" ht="68">
       <c r="A82" s="15" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
-      <c r="F82" s="10"/>
+      <c r="F82" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>418</v>
+      </c>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
     </row>
-    <row r="83" spans="1:9" customFormat="1" ht="85">
-      <c r="A83" t="s">
-        <v>244</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>344</v>
-      </c>
+    <row r="83" spans="1:9">
+      <c r="A83" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="10"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
     </row>
     <row r="84" spans="1:9" customFormat="1" ht="85">
       <c r="A84" t="s">
         <v>244</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="85" spans="1:9" customFormat="1" ht="85">
@@ -3460,30 +3469,22 @@
         <v>244</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="136">
-      <c r="A86" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="4" t="s">
-        <v>384</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" customFormat="1" ht="85">
+      <c r="A86" t="s">
+        <v>244</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="H86" s="11">
-        <v>10</v>
-      </c>
-      <c r="I86" s="11"/>
+        <v>343</v>
+      </c>
     </row>
     <row r="87" spans="1:9" ht="136">
       <c r="A87" s="15" t="s">
@@ -3492,69 +3493,71 @@
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
-      <c r="E87" s="11" t="s">
-        <v>420</v>
-      </c>
+      <c r="E87" s="11"/>
       <c r="F87" s="4" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H87" s="11">
         <v>10</v>
       </c>
       <c r="I87" s="11"/>
     </row>
-    <row r="88" spans="1:9" ht="68">
-      <c r="A88" s="14" t="s">
-        <v>255</v>
+    <row r="88" spans="1:9" ht="136">
+      <c r="A88" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
+      <c r="E88" s="11" t="s">
+        <v>419</v>
+      </c>
       <c r="F88" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="H88" s="11">
+        <v>10</v>
+      </c>
+      <c r="I88" s="11"/>
+    </row>
+    <row r="89" spans="1:9" ht="68">
+      <c r="A89" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G89" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="G88" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-    </row>
-    <row r="89" spans="1:9" customFormat="1" ht="136">
-      <c r="A89" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="H89" s="1">
-        <v>6</v>
-      </c>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
     </row>
     <row r="90" spans="1:9" customFormat="1" ht="136">
       <c r="A90" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C90" t="s">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>348</v>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H90" s="1">
         <v>6</v>
@@ -3564,17 +3567,14 @@
       <c r="A91" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B91" s="1"/>
       <c r="C91" t="s">
-        <v>355</v>
-      </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+        <v>354</v>
+      </c>
       <c r="F91" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H91" s="1">
         <v>6</v>
@@ -3585,16 +3585,16 @@
         <v>232</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="1" t="s">
-        <v>356</v>
+      <c r="C92" t="s">
+        <v>354</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H92" s="1">
         <v>6</v>
@@ -3605,37 +3605,57 @@
         <v>232</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>355</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H93" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="68">
+    <row r="94" spans="1:9" customFormat="1" ht="136">
       <c r="A94" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" t="s">
+        <v>354</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="H94" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="68">
+      <c r="A95" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="4" t="s">
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G95" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="G94" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3647,65 +3667,66 @@
     <hyperlink ref="G25" r:id="rId6" xr:uid="{40334C50-050A-2D47-A7FB-2E852B0E3648}"/>
     <hyperlink ref="G27" r:id="rId7" xr:uid="{F4AE91CA-BB86-474B-B693-B4D09ED95D07}"/>
     <hyperlink ref="G28" r:id="rId8" xr:uid="{CC900F88-43DB-7649-8776-0567D1C0D94A}"/>
-    <hyperlink ref="G30" r:id="rId9" xr:uid="{5B67E09A-1D23-0B4D-BCD7-9884DE792065}"/>
-    <hyperlink ref="G31" r:id="rId10" xr:uid="{73129A27-050F-534E-93DB-1CA24C4CB671}"/>
-    <hyperlink ref="G32" r:id="rId11" xr:uid="{DB6977F0-4DF8-5C46-AA31-DE79FED329B8}"/>
-    <hyperlink ref="G33" r:id="rId12" xr:uid="{B15733C3-09CE-E34C-8045-956E8A33DE9E}"/>
-    <hyperlink ref="G34" r:id="rId13" xr:uid="{0C2DA2C0-0CB6-D34B-80E1-0D69933688C5}"/>
-    <hyperlink ref="G35" r:id="rId14" xr:uid="{13452FE0-CFD1-ED44-B118-3E5C832F54E2}"/>
-    <hyperlink ref="G36" r:id="rId15" xr:uid="{EE796276-AA4E-F044-B587-6B5C27F62773}"/>
-    <hyperlink ref="G37" r:id="rId16" xr:uid="{20F34265-03B3-304A-A36C-3B277716EB94}"/>
-    <hyperlink ref="G38" r:id="rId17" xr:uid="{FADC98FC-B898-734E-B6AB-EAD74E852FAE}"/>
-    <hyperlink ref="G39" r:id="rId18" xr:uid="{5EE505DC-FC5B-CC46-A231-C0C433A1497D}"/>
-    <hyperlink ref="G40" r:id="rId19" xr:uid="{D5F5AF42-EE04-9847-9DA9-1CFE6D03EADD}"/>
-    <hyperlink ref="G43" r:id="rId20" xr:uid="{DD37E897-4AF2-C446-AFC9-AE2D2668D04B}"/>
-    <hyperlink ref="G46" r:id="rId21" xr:uid="{5B42B65D-A1FD-F045-813B-9B34FD00E612}"/>
-    <hyperlink ref="G47" r:id="rId22" xr:uid="{6D77035D-91EC-DA44-A0F5-FAD7B412CD80}"/>
-    <hyperlink ref="G48" r:id="rId23" xr:uid="{797C5BAE-6E75-7945-ADF3-6B85EF0CF932}"/>
-    <hyperlink ref="G51" r:id="rId24" xr:uid="{4B1D9871-5DB6-9A43-8529-CBDAC12E4BE1}"/>
-    <hyperlink ref="G53" r:id="rId25" xr:uid="{74D6B24C-87AA-3942-ADC8-85E506BF51A6}"/>
-    <hyperlink ref="G56" r:id="rId26" location="erlanger" xr:uid="{7C902504-1571-AB49-90F3-269CF2451A70}"/>
-    <hyperlink ref="G65" r:id="rId27" xr:uid="{C780B7FC-5541-A848-8DA6-E2A38F34C195}"/>
-    <hyperlink ref="G69" r:id="rId28" xr:uid="{A126A520-C71A-C64F-89C1-979BE60AC74B}"/>
-    <hyperlink ref="G83" r:id="rId29" xr:uid="{968E1F1A-6BC9-0C4B-BA64-1ABDCD7D2213}"/>
-    <hyperlink ref="G84" r:id="rId30" xr:uid="{16BCFF1B-0E55-E14A-B8DA-70C247B4EBCE}"/>
-    <hyperlink ref="G85" r:id="rId31" xr:uid="{9DCC42EE-ACE8-2343-BB92-88F26704B01B}"/>
-    <hyperlink ref="G89" r:id="rId32" xr:uid="{F94C97C5-9539-A845-A256-7F05E2C75172}"/>
-    <hyperlink ref="G90" r:id="rId33" xr:uid="{6FB30D17-9D09-9A4E-A6A8-C62F55390137}"/>
-    <hyperlink ref="G91" r:id="rId34" xr:uid="{9DA50389-BA9B-3F4C-9607-B25368D94E3F}"/>
-    <hyperlink ref="G92" r:id="rId35" xr:uid="{F3E6D108-26DF-7842-88D6-2417F00B4F4B}"/>
-    <hyperlink ref="G93" r:id="rId36" xr:uid="{8CA4CA98-CD1F-B043-97A6-2F9E53301BFA}"/>
-    <hyperlink ref="G4" r:id="rId37" xr:uid="{571E10F9-1FC1-2E42-B475-CEFCCBBCD1DA}"/>
-    <hyperlink ref="G9" r:id="rId38" xr:uid="{04A05BB1-33A8-3B4B-888E-31A7D3AFC967}"/>
-    <hyperlink ref="G18" r:id="rId39" xr:uid="{90B326B9-4257-344F-A688-FCD6EA4AF536}"/>
-    <hyperlink ref="G19" r:id="rId40" xr:uid="{A19628D3-3B7A-7143-8A7D-4D75EEB9B278}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{21806CD8-5B82-BD4A-BC36-9D5D30A3D7DE}"/>
-    <hyperlink ref="G20" r:id="rId42" xr:uid="{37D0DA25-8D8C-D044-8EBA-55EF3EE59783}"/>
-    <hyperlink ref="G23" r:id="rId43" xr:uid="{78633509-95FB-3B43-9A07-890992FB8944}"/>
-    <hyperlink ref="G26" r:id="rId44" xr:uid="{354322C7-59CC-9344-B760-11B8B600E747}"/>
-    <hyperlink ref="G29" r:id="rId45" location="about" xr:uid="{425EC0D4-6565-4345-AB1F-9FB2B66D4B39}"/>
-    <hyperlink ref="G42" r:id="rId46" xr:uid="{8BFB04FE-9A3D-9F4B-B309-7B50F276C779}"/>
-    <hyperlink ref="G45" r:id="rId47" xr:uid="{880EF057-28F7-F543-A713-DC7C3DE7AB9A}"/>
-    <hyperlink ref="G76" r:id="rId48" location="Since_2007:_Strauss_Group" xr:uid="{E713A8A5-A4F5-2448-9B65-C7F308794050}"/>
-    <hyperlink ref="G77" r:id="rId49" xr:uid="{9DF8237F-65A1-BE43-B338-76491C74A7B1}"/>
-    <hyperlink ref="G78" r:id="rId50" xr:uid="{5A2E8ED0-3CAB-3548-9523-AE177D94BE0A}"/>
-    <hyperlink ref="G79" r:id="rId51" xr:uid="{453D9930-6030-504A-BF72-2E6FC752480B}"/>
-    <hyperlink ref="G86" r:id="rId52" xr:uid="{71E038EF-ADD7-484E-A123-747C99BAC01E}"/>
-    <hyperlink ref="G88" r:id="rId53" xr:uid="{862B0556-DE2E-5F41-BF21-C4EA09684167}"/>
-    <hyperlink ref="G94" r:id="rId54" xr:uid="{18B10A20-AFEB-B241-9C48-A80D2CB9C177}"/>
-    <hyperlink ref="G5" r:id="rId55" location="hero" xr:uid="{A5674C36-E1FC-5749-A3BA-C5E4E0671D2A}"/>
-    <hyperlink ref="G13" r:id="rId56" xr:uid="{718F73B0-A445-6A41-87C0-5052B5E28BE7}"/>
-    <hyperlink ref="G49" r:id="rId57" xr:uid="{952CB0CC-9D76-2E4E-BC21-D9CFF5C5EFD5}"/>
-    <hyperlink ref="G57" r:id="rId58" xr:uid="{329746A0-5276-4841-9B15-0E7088CE486D}"/>
-    <hyperlink ref="G58:G64" r:id="rId59" display="https://en.wikipedia.org/wiki/Philips" xr:uid="{070B6D8E-0069-1D48-A88C-5C07C4911082}"/>
-    <hyperlink ref="G14" r:id="rId60" xr:uid="{9AFB759D-F152-3648-9ECF-D0DFF28CE4BF}"/>
-    <hyperlink ref="G52" r:id="rId61" xr:uid="{0CF2AEC6-C783-A541-AEA8-9A866C39DBA0}"/>
-    <hyperlink ref="G66" r:id="rId62" xr:uid="{0503C7BE-1CBB-9645-897B-76BE4A73C09F}"/>
-    <hyperlink ref="G71" r:id="rId63" xr:uid="{C814D5C1-608B-BD4C-87F2-64021BF5CBF2}"/>
-    <hyperlink ref="G72:G75" r:id="rId64" display="https://www.sec.gov/Archives/edgar/data/829224/000095013407024667/v33834e10vk.htm" xr:uid="{FCE6654B-A102-1D4D-AF9D-864536FDD1D3}"/>
-    <hyperlink ref="G81" r:id="rId65" xr:uid="{31A6EF36-06E8-7D43-A427-520BFB7428D7}"/>
-    <hyperlink ref="G15" r:id="rId66" xr:uid="{3125E2CD-BB30-9844-AB97-A64B380B3DDA}"/>
-    <hyperlink ref="G87" r:id="rId67" xr:uid="{DC04EEAC-45FA-A540-AA51-0F9D9D0B5FEA}"/>
+    <hyperlink ref="G44" r:id="rId9" xr:uid="{DD37E897-4AF2-C446-AFC9-AE2D2668D04B}"/>
+    <hyperlink ref="G47" r:id="rId10" xr:uid="{5B42B65D-A1FD-F045-813B-9B34FD00E612}"/>
+    <hyperlink ref="G48" r:id="rId11" xr:uid="{6D77035D-91EC-DA44-A0F5-FAD7B412CD80}"/>
+    <hyperlink ref="G49" r:id="rId12" xr:uid="{797C5BAE-6E75-7945-ADF3-6B85EF0CF932}"/>
+    <hyperlink ref="G52" r:id="rId13" xr:uid="{4B1D9871-5DB6-9A43-8529-CBDAC12E4BE1}"/>
+    <hyperlink ref="G54" r:id="rId14" xr:uid="{74D6B24C-87AA-3942-ADC8-85E506BF51A6}"/>
+    <hyperlink ref="G57" r:id="rId15" location="erlanger" xr:uid="{7C902504-1571-AB49-90F3-269CF2451A70}"/>
+    <hyperlink ref="G66" r:id="rId16" xr:uid="{C780B7FC-5541-A848-8DA6-E2A38F34C195}"/>
+    <hyperlink ref="G70" r:id="rId17" xr:uid="{A126A520-C71A-C64F-89C1-979BE60AC74B}"/>
+    <hyperlink ref="G84" r:id="rId18" xr:uid="{968E1F1A-6BC9-0C4B-BA64-1ABDCD7D2213}"/>
+    <hyperlink ref="G85" r:id="rId19" xr:uid="{16BCFF1B-0E55-E14A-B8DA-70C247B4EBCE}"/>
+    <hyperlink ref="G86" r:id="rId20" xr:uid="{9DCC42EE-ACE8-2343-BB92-88F26704B01B}"/>
+    <hyperlink ref="G90" r:id="rId21" xr:uid="{F94C97C5-9539-A845-A256-7F05E2C75172}"/>
+    <hyperlink ref="G91" r:id="rId22" xr:uid="{6FB30D17-9D09-9A4E-A6A8-C62F55390137}"/>
+    <hyperlink ref="G92" r:id="rId23" xr:uid="{9DA50389-BA9B-3F4C-9607-B25368D94E3F}"/>
+    <hyperlink ref="G93" r:id="rId24" xr:uid="{F3E6D108-26DF-7842-88D6-2417F00B4F4B}"/>
+    <hyperlink ref="G94" r:id="rId25" xr:uid="{8CA4CA98-CD1F-B043-97A6-2F9E53301BFA}"/>
+    <hyperlink ref="G4" r:id="rId26" xr:uid="{571E10F9-1FC1-2E42-B475-CEFCCBBCD1DA}"/>
+    <hyperlink ref="G9" r:id="rId27" xr:uid="{04A05BB1-33A8-3B4B-888E-31A7D3AFC967}"/>
+    <hyperlink ref="G18" r:id="rId28" xr:uid="{90B326B9-4257-344F-A688-FCD6EA4AF536}"/>
+    <hyperlink ref="G19" r:id="rId29" xr:uid="{A19628D3-3B7A-7143-8A7D-4D75EEB9B278}"/>
+    <hyperlink ref="G22" r:id="rId30" xr:uid="{21806CD8-5B82-BD4A-BC36-9D5D30A3D7DE}"/>
+    <hyperlink ref="G20" r:id="rId31" xr:uid="{37D0DA25-8D8C-D044-8EBA-55EF3EE59783}"/>
+    <hyperlink ref="G23" r:id="rId32" xr:uid="{78633509-95FB-3B43-9A07-890992FB8944}"/>
+    <hyperlink ref="G26" r:id="rId33" xr:uid="{354322C7-59CC-9344-B760-11B8B600E747}"/>
+    <hyperlink ref="G29" r:id="rId34" location="about" xr:uid="{425EC0D4-6565-4345-AB1F-9FB2B66D4B39}"/>
+    <hyperlink ref="G43" r:id="rId35" xr:uid="{8BFB04FE-9A3D-9F4B-B309-7B50F276C779}"/>
+    <hyperlink ref="G46" r:id="rId36" xr:uid="{880EF057-28F7-F543-A713-DC7C3DE7AB9A}"/>
+    <hyperlink ref="G77" r:id="rId37" location="Since_2007:_Strauss_Group" xr:uid="{E713A8A5-A4F5-2448-9B65-C7F308794050}"/>
+    <hyperlink ref="G78" r:id="rId38" xr:uid="{9DF8237F-65A1-BE43-B338-76491C74A7B1}"/>
+    <hyperlink ref="G79" r:id="rId39" xr:uid="{5A2E8ED0-3CAB-3548-9523-AE177D94BE0A}"/>
+    <hyperlink ref="G80" r:id="rId40" xr:uid="{453D9930-6030-504A-BF72-2E6FC752480B}"/>
+    <hyperlink ref="G87" r:id="rId41" xr:uid="{71E038EF-ADD7-484E-A123-747C99BAC01E}"/>
+    <hyperlink ref="G89" r:id="rId42" xr:uid="{862B0556-DE2E-5F41-BF21-C4EA09684167}"/>
+    <hyperlink ref="G95" r:id="rId43" xr:uid="{18B10A20-AFEB-B241-9C48-A80D2CB9C177}"/>
+    <hyperlink ref="G5" r:id="rId44" location="hero" xr:uid="{A5674C36-E1FC-5749-A3BA-C5E4E0671D2A}"/>
+    <hyperlink ref="G13" r:id="rId45" xr:uid="{718F73B0-A445-6A41-87C0-5052B5E28BE7}"/>
+    <hyperlink ref="G50" r:id="rId46" xr:uid="{952CB0CC-9D76-2E4E-BC21-D9CFF5C5EFD5}"/>
+    <hyperlink ref="G58" r:id="rId47" xr:uid="{329746A0-5276-4841-9B15-0E7088CE486D}"/>
+    <hyperlink ref="G59:G65" r:id="rId48" display="https://en.wikipedia.org/wiki/Philips" xr:uid="{070B6D8E-0069-1D48-A88C-5C07C4911082}"/>
+    <hyperlink ref="G14" r:id="rId49" xr:uid="{9AFB759D-F152-3648-9ECF-D0DFF28CE4BF}"/>
+    <hyperlink ref="G53" r:id="rId50" xr:uid="{0CF2AEC6-C783-A541-AEA8-9A866C39DBA0}"/>
+    <hyperlink ref="G67" r:id="rId51" xr:uid="{0503C7BE-1CBB-9645-897B-76BE4A73C09F}"/>
+    <hyperlink ref="G72" r:id="rId52" xr:uid="{C814D5C1-608B-BD4C-87F2-64021BF5CBF2}"/>
+    <hyperlink ref="G73:G76" r:id="rId53" display="https://www.sec.gov/Archives/edgar/data/829224/000095013407024667/v33834e10vk.htm" xr:uid="{FCE6654B-A102-1D4D-AF9D-864536FDD1D3}"/>
+    <hyperlink ref="G82" r:id="rId54" xr:uid="{31A6EF36-06E8-7D43-A427-520BFB7428D7}"/>
+    <hyperlink ref="G15" r:id="rId55" xr:uid="{3125E2CD-BB30-9844-AB97-A64B380B3DDA}"/>
+    <hyperlink ref="G88" r:id="rId56" xr:uid="{DC04EEAC-45FA-A540-AA51-0F9D9D0B5FEA}"/>
+    <hyperlink ref="G30" r:id="rId57" xr:uid="{F5E4995C-0A3B-EB4B-AD13-E8DB39B73457}"/>
+    <hyperlink ref="G32" r:id="rId58" xr:uid="{211607B7-1742-D042-B479-73711341081A}"/>
+    <hyperlink ref="G33" r:id="rId59" xr:uid="{DB7D014D-E3BD-2B48-94A6-AD63A5798A88}"/>
+    <hyperlink ref="G34" r:id="rId60" xr:uid="{6B74B797-639B-8C41-B26B-9D3ADD68419C}"/>
+    <hyperlink ref="G36" r:id="rId61" xr:uid="{6CBBF5D4-875A-6243-BC89-83FED533A6CB}"/>
+    <hyperlink ref="G37" r:id="rId62" xr:uid="{665F7CF4-9C3E-044D-8D94-3F9FEEA5D218}"/>
+    <hyperlink ref="G38" r:id="rId63" xr:uid="{B149DBC9-A88B-0B4A-9E5B-2F2898B9EAE9}"/>
+    <hyperlink ref="G39" r:id="rId64" xr:uid="{B57D22D5-2CC8-0D43-81A5-05E16A75D9F2}"/>
+    <hyperlink ref="G40" r:id="rId65" xr:uid="{777FEC5D-CE0E-C343-A91D-83F8F2084C54}"/>
+    <hyperlink ref="G41" r:id="rId66" xr:uid="{41A246CC-B539-8341-8F9F-3E44D6AD9FBD}"/>
+    <hyperlink ref="G31" r:id="rId67" xr:uid="{886158A2-8F89-2E4B-A5E0-B2F7CE9BE94C}"/>
+    <hyperlink ref="G35" r:id="rId68" xr:uid="{CF15CB39-907B-8D43-9D6E-D4AFA3E17D06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5859,16 +5880,16 @@
         <v>87</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5879,16 +5900,16 @@
         <v>110</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5899,16 +5920,16 @@
         <v>72</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5919,16 +5940,16 @@
         <v>5</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="111" spans="1:6">
